--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_EQ组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version3.1.3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -195,6 +190,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>】- android首页加载底层逻辑优化</t>
@@ -253,12 +249,30 @@
     <t>裔玲玲</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -270,47 +284,55 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -318,11 +340,13 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -569,6 +593,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -588,7 +680,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -908,14 +1000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
@@ -938,7 +1030,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -997,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1029,17 +1121,25 @@
       <c r="K2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="25"/>
+      <c r="L2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="17">
+        <v>42506</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
       <c r="S2" s="29"/>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1071,7 +1171,9 @@
       <c r="K3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="M3" s="25"/>
       <c r="N3" s="17"/>
       <c r="O3" s="25"/>
@@ -1081,7 +1183,7 @@
       <c r="S3" s="29"/>
       <c r="T3" s="30"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1113,17 +1215,25 @@
       <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="25"/>
+      <c r="L4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="17">
+        <v>42506</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
       <c r="S4" s="29"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1155,17 +1265,25 @@
       <c r="K5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="25"/>
+      <c r="L5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="17">
+        <v>42506</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1197,17 +1315,25 @@
       <c r="K6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="25"/>
+      <c r="L6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="17">
+        <v>42506</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="29"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1239,17 +1365,25 @@
       <c r="K7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="25"/>
+      <c r="L7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="17">
+        <v>42506</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="29"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1281,17 +1415,25 @@
       <c r="K8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="25"/>
+      <c r="L8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="17">
+        <v>42506</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1323,17 +1465,25 @@
       <c r="K9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="25"/>
+      <c r="L9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="17">
+        <v>42506</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="29"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1365,17 +1515,25 @@
       <c r="K10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="25"/>
+      <c r="L10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="17">
+        <v>42506</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="29"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="14"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
@@ -1397,7 +1555,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="14"/>
       <c r="B12" s="18"/>
       <c r="C12" s="16"/>
@@ -1419,7 +1577,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="14"/>
       <c r="B13" s="18"/>
       <c r="C13" s="16"/>
@@ -1441,7 +1599,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="14"/>
       <c r="B14" s="18"/>
       <c r="C14" s="16"/>
@@ -1463,7 +1621,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="14"/>
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
@@ -1485,7 +1643,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1507,7 +1665,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -1529,7 +1687,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1551,7 +1709,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1573,7 +1731,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -1595,7 +1753,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -1617,7 +1775,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -1639,7 +1797,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -1661,7 +1819,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -1683,7 +1841,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -1705,7 +1863,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -1727,7 +1885,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -1749,7 +1907,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -1771,7 +1929,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -1793,7 +1951,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -1815,7 +1973,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -1837,7 +1995,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -1859,7 +2017,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -1881,7 +2039,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -1903,7 +2061,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -1925,7 +2083,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -1947,7 +2105,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A37" s="14"/>
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
@@ -1969,7 +2127,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="30"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
       <c r="C38" s="16"/>
@@ -1991,7 +2149,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
       <c r="C39" s="16"/>
@@ -2013,7 +2171,7 @@
       <c r="S39" s="29"/>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A40" s="14"/>
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
@@ -2035,7 +2193,7 @@
       <c r="S40" s="29"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A41" s="14"/>
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
@@ -2057,7 +2215,7 @@
       <c r="S41" s="29"/>
       <c r="T41" s="30"/>
     </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A42" s="14"/>
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
@@ -2079,7 +2237,7 @@
       <c r="S42" s="29"/>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A43" s="14"/>
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
@@ -2101,7 +2259,7 @@
       <c r="S43" s="29"/>
       <c r="T43" s="30"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A44" s="14"/>
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
@@ -2123,7 +2281,7 @@
       <c r="S44" s="29"/>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A45" s="14"/>
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
@@ -2145,7 +2303,7 @@
       <c r="S45" s="29"/>
       <c r="T45" s="30"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A46" s="14"/>
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
@@ -2167,7 +2325,7 @@
       <c r="S46" s="29"/>
       <c r="T46" s="30"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="19"/>
@@ -2189,7 +2347,7 @@
       <c r="S47" s="20"/>
       <c r="T47" s="30"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="19"/>
@@ -2211,7 +2369,7 @@
       <c r="S48" s="20"/>
       <c r="T48" s="30"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="22"/>
@@ -2232,7 +2390,7 @@
       <c r="R49" s="22"/>
       <c r="S49" s="23"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="22"/>
@@ -2253,7 +2411,7 @@
       <c r="R50" s="22"/>
       <c r="S50" s="23"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="22"/>
@@ -2274,7 +2432,7 @@
       <c r="R51" s="22"/>
       <c r="S51" s="23"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="22"/>
@@ -2295,7 +2453,7 @@
       <c r="R52" s="22"/>
       <c r="S52" s="23"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="22"/>
@@ -2316,7 +2474,7 @@
       <c r="R53" s="22"/>
       <c r="S53" s="23"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="22"/>
@@ -2337,7 +2495,7 @@
       <c r="R54" s="22"/>
       <c r="S54" s="23"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="22"/>
@@ -2358,7 +2516,7 @@
       <c r="R55" s="22"/>
       <c r="S55" s="23"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="22"/>
@@ -2379,7 +2537,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="23"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="22"/>
@@ -2400,7 +2558,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="23"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="22"/>
@@ -2421,7 +2579,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="23"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="22"/>
@@ -2442,7 +2600,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="23"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="22"/>
@@ -2463,7 +2621,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="23"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="22"/>
@@ -2484,7 +2642,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="23"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="22"/>
@@ -2505,7 +2663,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="23"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="22"/>
@@ -2526,7 +2684,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="23"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="22"/>
@@ -2547,7 +2705,7 @@
       <c r="R64" s="22"/>
       <c r="S64" s="23"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="22"/>
@@ -2568,7 +2726,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="23"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
       <c r="C66" s="22"/>
@@ -2589,7 +2747,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="23"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="22"/>
       <c r="B67" s="23"/>
       <c r="C67" s="22"/>
@@ -2610,7 +2768,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="23"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="22"/>
       <c r="B68" s="23"/>
       <c r="C68" s="22"/>
@@ -2631,7 +2789,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="23"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="22"/>
       <c r="B69" s="23"/>
       <c r="C69" s="22"/>
@@ -2652,7 +2810,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="22"/>
       <c r="B70" s="23"/>
       <c r="C70" s="22"/>
@@ -2673,7 +2831,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="22"/>
@@ -2694,7 +2852,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="23"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="22"/>
       <c r="B72" s="23"/>
       <c r="C72" s="22"/>
@@ -2715,7 +2873,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="23"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="22"/>
@@ -2736,7 +2894,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="23"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
       <c r="C74" s="22"/>
@@ -2757,7 +2915,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="23"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="22"/>
       <c r="B75" s="23"/>
       <c r="C75" s="22"/>
@@ -2778,7 +2936,7 @@
       <c r="R75" s="22"/>
       <c r="S75" s="23"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="22"/>
@@ -2799,7 +2957,7 @@
       <c r="R76" s="22"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="22"/>
       <c r="B77" s="23"/>
       <c r="C77" s="22"/>
@@ -2820,7 +2978,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="23"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
       <c r="C78" s="22"/>
@@ -2841,7 +2999,7 @@
       <c r="R78" s="22"/>
       <c r="S78" s="23"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="22"/>
@@ -2862,7 +3020,7 @@
       <c r="R79" s="22"/>
       <c r="S79" s="23"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="22"/>
@@ -2883,7 +3041,7 @@
       <c r="R80" s="22"/>
       <c r="S80" s="23"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="22"/>
@@ -2904,7 +3062,7 @@
       <c r="R81" s="22"/>
       <c r="S81" s="23"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="22"/>
@@ -2925,7 +3083,7 @@
       <c r="R82" s="22"/>
       <c r="S82" s="23"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="22"/>
@@ -2946,7 +3104,7 @@
       <c r="R83" s="22"/>
       <c r="S83" s="23"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
       <c r="C84" s="22"/>
@@ -2967,7 +3125,7 @@
       <c r="R84" s="22"/>
       <c r="S84" s="23"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="22"/>
@@ -2988,7 +3146,7 @@
       <c r="R85" s="22"/>
       <c r="S85" s="23"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="22"/>
       <c r="B86" s="23"/>
       <c r="C86" s="22"/>
@@ -3009,7 +3167,7 @@
       <c r="R86" s="22"/>
       <c r="S86" s="23"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
       <c r="C87" s="22"/>
@@ -3030,7 +3188,7 @@
       <c r="R87" s="22"/>
       <c r="S87" s="23"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
       <c r="C88" s="22"/>
@@ -3051,7 +3209,7 @@
       <c r="R88" s="22"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="22"/>
       <c r="B89" s="23"/>
       <c r="C89" s="22"/>
@@ -3072,7 +3230,7 @@
       <c r="R89" s="22"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="22"/>
       <c r="B90" s="23"/>
       <c r="C90" s="22"/>
@@ -3093,7 +3251,7 @@
       <c r="R90" s="22"/>
       <c r="S90" s="23"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="22"/>
@@ -3114,7 +3272,7 @@
       <c r="R91" s="22"/>
       <c r="S91" s="23"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="22"/>
@@ -3135,7 +3293,7 @@
       <c r="R92" s="22"/>
       <c r="S92" s="23"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="22"/>
@@ -3156,7 +3314,7 @@
       <c r="R93" s="22"/>
       <c r="S93" s="23"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="22"/>
@@ -3177,7 +3335,7 @@
       <c r="R94" s="22"/>
       <c r="S94" s="23"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="22"/>
@@ -3198,7 +3356,7 @@
       <c r="R95" s="22"/>
       <c r="S95" s="23"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="22"/>
       <c r="B96" s="23"/>
       <c r="C96" s="22"/>
@@ -3219,7 +3377,7 @@
       <c r="R96" s="22"/>
       <c r="S96" s="23"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="22"/>
       <c r="B97" s="23"/>
       <c r="C97" s="22"/>
@@ -3240,7 +3398,7 @@
       <c r="R97" s="22"/>
       <c r="S97" s="23"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="22"/>
       <c r="B98" s="23"/>
       <c r="C98" s="22"/>
@@ -3261,7 +3419,7 @@
       <c r="R98" s="22"/>
       <c r="S98" s="23"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="22"/>
@@ -3282,7 +3440,7 @@
       <c r="R99" s="22"/>
       <c r="S99" s="23"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="22"/>
       <c r="B100" s="23"/>
       <c r="C100" s="22"/>
@@ -3303,7 +3461,7 @@
       <c r="R100" s="22"/>
       <c r="S100" s="23"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="22"/>
       <c r="B101" s="23"/>
       <c r="C101" s="22"/>
@@ -3324,7 +3482,7 @@
       <c r="R101" s="22"/>
       <c r="S101" s="23"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="22"/>
       <c r="B102" s="23"/>
       <c r="C102" s="22"/>
@@ -3345,7 +3503,7 @@
       <c r="R102" s="22"/>
       <c r="S102" s="23"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="22"/>
       <c r="B103" s="23"/>
       <c r="C103" s="22"/>
@@ -3366,7 +3524,7 @@
       <c r="R103" s="22"/>
       <c r="S103" s="23"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="22"/>
       <c r="B104" s="23"/>
       <c r="C104" s="22"/>
@@ -3387,7 +3545,7 @@
       <c r="R104" s="22"/>
       <c r="S104" s="23"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="16.5">
       <c r="A105" s="22"/>
       <c r="B105" s="23"/>
       <c r="C105" s="22"/>
@@ -3408,7 +3566,7 @@
       <c r="R105" s="22"/>
       <c r="S105" s="23"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="16.5">
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
       <c r="C106" s="22"/>
@@ -3429,7 +3587,7 @@
       <c r="R106" s="22"/>
       <c r="S106" s="23"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="16.5">
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
       <c r="C107" s="22"/>
@@ -3450,7 +3608,7 @@
       <c r="R107" s="22"/>
       <c r="S107" s="23"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5">
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
       <c r="C108" s="22"/>
@@ -3471,7 +3629,7 @@
       <c r="R108" s="22"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5">
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
       <c r="C109" s="22"/>
@@ -3492,7 +3650,7 @@
       <c r="R109" s="22"/>
       <c r="S109" s="23"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="22"/>
       <c r="B110" s="23"/>
       <c r="C110" s="22"/>
@@ -3513,7 +3671,7 @@
       <c r="R110" s="22"/>
       <c r="S110" s="23"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="22"/>
       <c r="B111" s="23"/>
       <c r="C111" s="22"/>
@@ -3534,7 +3692,7 @@
       <c r="R111" s="22"/>
       <c r="S111" s="23"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="22"/>
       <c r="B112" s="23"/>
       <c r="C112" s="22"/>
@@ -3555,7 +3713,7 @@
       <c r="R112" s="22"/>
       <c r="S112" s="23"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
       <c r="C113" s="22"/>
@@ -3576,7 +3734,7 @@
       <c r="R113" s="22"/>
       <c r="S113" s="23"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
       <c r="C114" s="22"/>
@@ -3597,7 +3755,7 @@
       <c r="R114" s="22"/>
       <c r="S114" s="23"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="22"/>
@@ -3618,7 +3776,7 @@
       <c r="R115" s="22"/>
       <c r="S115" s="23"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
       <c r="C116" s="22"/>
@@ -3639,7 +3797,7 @@
       <c r="R116" s="22"/>
       <c r="S116" s="23"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="22"/>
       <c r="B117" s="23"/>
       <c r="C117" s="22"/>
@@ -3660,7 +3818,7 @@
       <c r="R117" s="22"/>
       <c r="S117" s="23"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
       <c r="C118" s="22"/>
@@ -3681,7 +3839,7 @@
       <c r="R118" s="22"/>
       <c r="S118" s="23"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="22"/>
       <c r="B119" s="23"/>
       <c r="C119" s="22"/>
@@ -3702,7 +3860,7 @@
       <c r="R119" s="22"/>
       <c r="S119" s="23"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="22"/>
       <c r="B120" s="23"/>
       <c r="C120" s="22"/>
@@ -3723,7 +3881,7 @@
       <c r="R120" s="22"/>
       <c r="S120" s="23"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="22"/>
       <c r="B121" s="23"/>
       <c r="C121" s="22"/>
@@ -3744,7 +3902,7 @@
       <c r="R121" s="22"/>
       <c r="S121" s="23"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="22"/>
       <c r="B122" s="23"/>
       <c r="C122" s="22"/>
@@ -3765,7 +3923,7 @@
       <c r="R122" s="22"/>
       <c r="S122" s="23"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="22"/>
       <c r="B123" s="23"/>
       <c r="C123" s="22"/>
@@ -3786,7 +3944,7 @@
       <c r="R123" s="22"/>
       <c r="S123" s="23"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="22"/>
       <c r="B124" s="23"/>
       <c r="C124" s="22"/>
@@ -3807,7 +3965,7 @@
       <c r="R124" s="22"/>
       <c r="S124" s="23"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="22"/>
       <c r="B125" s="23"/>
       <c r="C125" s="22"/>
@@ -3828,7 +3986,7 @@
       <c r="R125" s="22"/>
       <c r="S125" s="23"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="22"/>
       <c r="B126" s="23"/>
       <c r="C126" s="22"/>
@@ -3849,7 +4007,7 @@
       <c r="R126" s="22"/>
       <c r="S126" s="23"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="22"/>
       <c r="B127" s="23"/>
       <c r="C127" s="22"/>
@@ -3870,7 +4028,7 @@
       <c r="R127" s="22"/>
       <c r="S127" s="23"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="22"/>
       <c r="B128" s="23"/>
       <c r="C128" s="22"/>
@@ -3891,7 +4049,7 @@
       <c r="R128" s="22"/>
       <c r="S128" s="23"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="22"/>
       <c r="B129" s="23"/>
       <c r="C129" s="22"/>
@@ -3912,7 +4070,7 @@
       <c r="R129" s="22"/>
       <c r="S129" s="23"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="22"/>
       <c r="B130" s="23"/>
       <c r="C130" s="22"/>
@@ -3933,7 +4091,7 @@
       <c r="R130" s="22"/>
       <c r="S130" s="23"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="22"/>
       <c r="B131" s="23"/>
       <c r="C131" s="22"/>
@@ -3954,7 +4112,7 @@
       <c r="R131" s="22"/>
       <c r="S131" s="23"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="22"/>
       <c r="B132" s="23"/>
       <c r="C132" s="22"/>
@@ -3975,7 +4133,7 @@
       <c r="R132" s="22"/>
       <c r="S132" s="23"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="22"/>
       <c r="B133" s="23"/>
       <c r="C133" s="22"/>
@@ -3996,7 +4154,7 @@
       <c r="R133" s="22"/>
       <c r="S133" s="23"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="22"/>
       <c r="B134" s="23"/>
       <c r="C134" s="22"/>
@@ -4017,7 +4175,7 @@
       <c r="R134" s="22"/>
       <c r="S134" s="23"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="22"/>
       <c r="B135" s="23"/>
       <c r="C135" s="22"/>
@@ -4038,7 +4196,7 @@
       <c r="R135" s="22"/>
       <c r="S135" s="23"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="22"/>
       <c r="B136" s="23"/>
       <c r="C136" s="22"/>
@@ -4059,7 +4217,7 @@
       <c r="R136" s="22"/>
       <c r="S136" s="23"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="22"/>
       <c r="B137" s="23"/>
       <c r="C137" s="22"/>
@@ -4080,7 +4238,7 @@
       <c r="R137" s="22"/>
       <c r="S137" s="23"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="22"/>
       <c r="B138" s="23"/>
       <c r="C138" s="22"/>
@@ -4101,7 +4259,7 @@
       <c r="R138" s="22"/>
       <c r="S138" s="23"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="22"/>
       <c r="B139" s="23"/>
       <c r="C139" s="22"/>
@@ -4122,7 +4280,7 @@
       <c r="R139" s="22"/>
       <c r="S139" s="23"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="22"/>
       <c r="B140" s="23"/>
       <c r="C140" s="22"/>
@@ -4143,7 +4301,7 @@
       <c r="R140" s="22"/>
       <c r="S140" s="23"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="22"/>
       <c r="B141" s="23"/>
       <c r="C141" s="22"/>
@@ -4164,7 +4322,7 @@
       <c r="R141" s="22"/>
       <c r="S141" s="23"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="22"/>
       <c r="B142" s="23"/>
       <c r="C142" s="22"/>
@@ -4185,7 +4343,7 @@
       <c r="R142" s="22"/>
       <c r="S142" s="23"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="22"/>
       <c r="B143" s="23"/>
       <c r="C143" s="22"/>
@@ -4206,7 +4364,7 @@
       <c r="R143" s="22"/>
       <c r="S143" s="23"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="22"/>
       <c r="B144" s="23"/>
       <c r="C144" s="22"/>
@@ -4227,7 +4385,7 @@
       <c r="R144" s="22"/>
       <c r="S144" s="23"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="22"/>
       <c r="B145" s="23"/>
       <c r="C145" s="22"/>
@@ -4248,7 +4406,7 @@
       <c r="R145" s="22"/>
       <c r="S145" s="23"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="22"/>
       <c r="B146" s="23"/>
       <c r="C146" s="22"/>
@@ -4269,7 +4427,7 @@
       <c r="R146" s="22"/>
       <c r="S146" s="23"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="22"/>
       <c r="B147" s="23"/>
       <c r="C147" s="22"/>
@@ -4290,7 +4448,7 @@
       <c r="R147" s="22"/>
       <c r="S147" s="23"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="22"/>
       <c r="B148" s="23"/>
       <c r="C148" s="22"/>
@@ -4311,7 +4469,7 @@
       <c r="R148" s="22"/>
       <c r="S148" s="23"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="22"/>
       <c r="B149" s="23"/>
       <c r="C149" s="22"/>
@@ -4332,7 +4490,7 @@
       <c r="R149" s="22"/>
       <c r="S149" s="23"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="22"/>
       <c r="B150" s="23"/>
       <c r="C150" s="22"/>
@@ -4353,7 +4511,7 @@
       <c r="R150" s="22"/>
       <c r="S150" s="23"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="22"/>
       <c r="B151" s="23"/>
       <c r="C151" s="22"/>
@@ -4374,7 +4532,7 @@
       <c r="R151" s="22"/>
       <c r="S151" s="23"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="22"/>
       <c r="B152" s="23"/>
       <c r="C152" s="22"/>
@@ -4395,7 +4553,7 @@
       <c r="R152" s="22"/>
       <c r="S152" s="23"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="22"/>
       <c r="B153" s="23"/>
       <c r="C153" s="22"/>
@@ -4416,7 +4574,7 @@
       <c r="R153" s="22"/>
       <c r="S153" s="23"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="22"/>
       <c r="B154" s="23"/>
       <c r="C154" s="22"/>
@@ -4437,7 +4595,7 @@
       <c r="R154" s="22"/>
       <c r="S154" s="23"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="22"/>
       <c r="B155" s="23"/>
       <c r="C155" s="22"/>
@@ -4458,7 +4616,7 @@
       <c r="R155" s="22"/>
       <c r="S155" s="23"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="22"/>
       <c r="B156" s="23"/>
       <c r="C156" s="22"/>
@@ -4479,7 +4637,7 @@
       <c r="R156" s="22"/>
       <c r="S156" s="23"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="22"/>
       <c r="B157" s="23"/>
       <c r="C157" s="22"/>
@@ -4500,7 +4658,7 @@
       <c r="R157" s="22"/>
       <c r="S157" s="23"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="22"/>
       <c r="B158" s="23"/>
       <c r="C158" s="22"/>
@@ -4521,7 +4679,7 @@
       <c r="R158" s="22"/>
       <c r="S158" s="23"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="22"/>
       <c r="B159" s="23"/>
       <c r="C159" s="22"/>
@@ -4542,7 +4700,7 @@
       <c r="R159" s="22"/>
       <c r="S159" s="23"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="22"/>
       <c r="B160" s="23"/>
       <c r="C160" s="22"/>
@@ -4563,7 +4721,7 @@
       <c r="R160" s="22"/>
       <c r="S160" s="23"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="22"/>
       <c r="B161" s="23"/>
       <c r="C161" s="22"/>
@@ -4584,7 +4742,7 @@
       <c r="R161" s="22"/>
       <c r="S161" s="23"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="22"/>
       <c r="B162" s="23"/>
       <c r="C162" s="22"/>
@@ -4605,7 +4763,7 @@
       <c r="R162" s="22"/>
       <c r="S162" s="23"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="22"/>
       <c r="B163" s="23"/>
       <c r="C163" s="22"/>
@@ -4626,7 +4784,7 @@
       <c r="R163" s="22"/>
       <c r="S163" s="23"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="22"/>
       <c r="B164" s="23"/>
       <c r="C164" s="22"/>
@@ -4647,7 +4805,7 @@
       <c r="R164" s="22"/>
       <c r="S164" s="23"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="22"/>
       <c r="B165" s="23"/>
       <c r="C165" s="22"/>
@@ -4668,7 +4826,7 @@
       <c r="R165" s="22"/>
       <c r="S165" s="23"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="22"/>
       <c r="B166" s="23"/>
       <c r="C166" s="22"/>
@@ -4689,7 +4847,7 @@
       <c r="R166" s="22"/>
       <c r="S166" s="23"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="22"/>
       <c r="B167" s="23"/>
       <c r="C167" s="22"/>
@@ -4710,7 +4868,7 @@
       <c r="R167" s="22"/>
       <c r="S167" s="23"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="22"/>
       <c r="B168" s="23"/>
       <c r="C168" s="22"/>
@@ -4731,7 +4889,7 @@
       <c r="R168" s="22"/>
       <c r="S168" s="23"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="22"/>
       <c r="B169" s="23"/>
       <c r="C169" s="22"/>
@@ -4752,7 +4910,7 @@
       <c r="R169" s="22"/>
       <c r="S169" s="23"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="22"/>
       <c r="B170" s="23"/>
       <c r="C170" s="22"/>
@@ -4770,7 +4928,7 @@
       <c r="O170" s="23"/>
       <c r="S170" s="23"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="22"/>
       <c r="B171" s="23"/>
       <c r="C171" s="22"/>
@@ -4788,7 +4946,7 @@
       <c r="O171" s="23"/>
       <c r="S171" s="23"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="22"/>
       <c r="B172" s="23"/>
       <c r="C172" s="22"/>
@@ -4806,7 +4964,7 @@
       <c r="O172" s="23"/>
       <c r="S172" s="23"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="22"/>
       <c r="B173" s="23"/>
       <c r="C173" s="22"/>
@@ -4824,7 +4982,7 @@
       <c r="O173" s="23"/>
       <c r="S173" s="23"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="22"/>
       <c r="B174" s="23"/>
       <c r="C174" s="22"/>
@@ -4842,7 +5000,7 @@
       <c r="O174" s="23"/>
       <c r="S174" s="23"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="22"/>
       <c r="B175" s="23"/>
       <c r="C175" s="22"/>
@@ -4860,7 +5018,7 @@
       <c r="O175" s="23"/>
       <c r="S175" s="23"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="22"/>
       <c r="B176" s="23"/>
       <c r="C176" s="22"/>
@@ -4878,7 +5036,7 @@
       <c r="O176" s="23"/>
       <c r="S176" s="23"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="22"/>
       <c r="B177" s="23"/>
       <c r="C177" s="22"/>
@@ -4896,7 +5054,7 @@
       <c r="O177" s="23"/>
       <c r="S177" s="23"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="22"/>
       <c r="B178" s="23"/>
       <c r="C178" s="22"/>
@@ -4914,7 +5072,7 @@
       <c r="O178" s="23"/>
       <c r="S178" s="23"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="22"/>
       <c r="B179" s="23"/>
       <c r="C179" s="22"/>
@@ -4932,7 +5090,7 @@
       <c r="O179" s="23"/>
       <c r="S179" s="23"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="22"/>
       <c r="B180" s="23"/>
       <c r="C180" s="22"/>
@@ -4950,7 +5108,7 @@
       <c r="O180" s="23"/>
       <c r="S180" s="23"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="22"/>
       <c r="B181" s="23"/>
       <c r="C181" s="22"/>
@@ -4968,7 +5126,7 @@
       <c r="O181" s="23"/>
       <c r="S181" s="23"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="22"/>
       <c r="B182" s="23"/>
       <c r="C182" s="22"/>
@@ -4986,7 +5144,7 @@
       <c r="O182" s="23"/>
       <c r="S182" s="23"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="22"/>
       <c r="B183" s="23"/>
       <c r="C183" s="22"/>
@@ -5004,7 +5162,7 @@
       <c r="O183" s="23"/>
       <c r="S183" s="23"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="22"/>
       <c r="B184" s="23"/>
       <c r="C184" s="22"/>
@@ -5022,7 +5180,7 @@
       <c r="O184" s="23"/>
       <c r="S184" s="23"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="22"/>
       <c r="B185" s="23"/>
       <c r="C185" s="22"/>
@@ -5040,7 +5198,7 @@
       <c r="O185" s="23"/>
       <c r="S185" s="23"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="22"/>
       <c r="B186" s="23"/>
       <c r="C186" s="22"/>
@@ -5058,7 +5216,7 @@
       <c r="O186" s="23"/>
       <c r="S186" s="23"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="22"/>
       <c r="B187" s="23"/>
       <c r="C187" s="22"/>
@@ -5076,7 +5234,7 @@
       <c r="O187" s="23"/>
       <c r="S187" s="23"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="22"/>
       <c r="B188" s="23"/>
       <c r="C188" s="22"/>
@@ -5094,7 +5252,7 @@
       <c r="O188" s="23"/>
       <c r="S188" s="23"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="22"/>
       <c r="B189" s="23"/>
       <c r="C189" s="22"/>
@@ -5112,7 +5270,7 @@
       <c r="O189" s="23"/>
       <c r="S189" s="23"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="22"/>
       <c r="B190" s="23"/>
       <c r="C190" s="22"/>
@@ -5130,7 +5288,7 @@
       <c r="O190" s="23"/>
       <c r="S190" s="23"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="22"/>
       <c r="B191" s="23"/>
       <c r="C191" s="22"/>
@@ -5148,7 +5306,7 @@
       <c r="O191" s="23"/>
       <c r="S191" s="23"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="22"/>
       <c r="B192" s="23"/>
       <c r="C192" s="22"/>
@@ -5166,7 +5324,7 @@
       <c r="O192" s="23"/>
       <c r="S192" s="23"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="22"/>
       <c r="B193" s="23"/>
       <c r="C193" s="22"/>
@@ -5184,7 +5342,7 @@
       <c r="O193" s="23"/>
       <c r="S193" s="23"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19">
       <c r="A194" s="22"/>
       <c r="B194" s="23"/>
       <c r="C194" s="22"/>
@@ -5202,7 +5360,7 @@
       <c r="O194" s="23"/>
       <c r="S194" s="23"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19">
       <c r="A195" s="22"/>
       <c r="B195" s="23"/>
       <c r="C195" s="22"/>
@@ -5220,7 +5378,7 @@
       <c r="O195" s="23"/>
       <c r="S195" s="23"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19">
       <c r="A196" s="22"/>
       <c r="B196" s="23"/>
       <c r="C196" s="22"/>
@@ -5238,7 +5396,7 @@
       <c r="O196" s="23"/>
       <c r="S196" s="23"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19">
       <c r="A197" s="22"/>
       <c r="B197" s="23"/>
       <c r="C197" s="22"/>
@@ -5256,7 +5414,7 @@
       <c r="O197" s="23"/>
       <c r="S197" s="23"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19">
       <c r="A198" s="22"/>
       <c r="B198" s="23"/>
       <c r="C198" s="22"/>
@@ -5274,7 +5432,7 @@
       <c r="O198" s="23"/>
       <c r="S198" s="23"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19">
       <c r="A199" s="22"/>
       <c r="B199" s="23"/>
       <c r="C199" s="22"/>
@@ -5292,7 +5450,7 @@
       <c r="O199" s="23"/>
       <c r="S199" s="23"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19">
       <c r="A200" s="22"/>
       <c r="B200" s="23"/>
       <c r="C200" s="22"/>
@@ -5310,7 +5468,7 @@
       <c r="O200" s="23"/>
       <c r="S200" s="23"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19">
       <c r="A201" s="22"/>
       <c r="B201" s="23"/>
       <c r="C201" s="22"/>
@@ -5328,7 +5486,7 @@
       <c r="O201" s="23"/>
       <c r="S201" s="23"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19">
       <c r="A202" s="22"/>
       <c r="B202" s="23"/>
       <c r="C202" s="22"/>
@@ -5346,7 +5504,7 @@
       <c r="O202" s="23"/>
       <c r="S202" s="23"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19">
       <c r="A203" s="22"/>
       <c r="B203" s="23"/>
       <c r="C203" s="22"/>
@@ -5364,7 +5522,7 @@
       <c r="O203" s="23"/>
       <c r="S203" s="23"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19">
       <c r="A204" s="22"/>
       <c r="B204" s="23"/>
       <c r="C204" s="22"/>
@@ -5391,14 +5549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5409,7 +5567,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -5435,7 +5593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5445,7 +5603,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5455,7 +5613,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5465,7 +5623,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5475,7 +5633,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5485,7 +5643,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5495,7 +5653,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5505,7 +5663,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5515,7 +5673,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5525,7 +5683,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5535,7 +5693,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5545,7 +5703,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5555,7 +5713,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5565,7 +5723,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5575,7 +5733,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5585,7 +5743,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5595,7 +5753,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5605,7 +5763,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_EQ组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_EQ组.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>No</t>
   </si>
@@ -246,26 +246,38 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+  </si>
+  <si>
+    <t>【BS-CMS】修复线上CMS录入文章后，摘要、标题等属性不显示的问题。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>裔玲玲</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>吴永余</t>
+    <t>【租客WAP】合租公寓房间详情页性别显示问题</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1016,7 @@
   <dimension ref="A1:T204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1122,16 +1134,16 @@
         <v>21</v>
       </c>
       <c r="L2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="N2" s="17">
         <v>42506</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
@@ -1172,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="17"/>
@@ -1216,16 +1228,16 @@
         <v>21</v>
       </c>
       <c r="L4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="N4" s="17">
         <v>42506</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
@@ -1266,16 +1278,16 @@
         <v>21</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5" s="17">
         <v>42506</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
@@ -1316,16 +1328,16 @@
         <v>21</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="17">
         <v>42506</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
@@ -1366,16 +1378,16 @@
         <v>21</v>
       </c>
       <c r="L7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="N7" s="17">
         <v>42506</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -1416,16 +1428,16 @@
         <v>21</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" s="17">
         <v>42506</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -1466,16 +1478,16 @@
         <v>21</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N9" s="17">
         <v>42506</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -1509,23 +1521,23 @@
         <v>42502</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="33" t="s">
-        <v>53</v>
+      <c r="J10" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="17">
         <v>42506</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -1533,22 +1545,50 @@
       <c r="S10" s="29"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
-      <c r="A11" s="14"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="33">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="17">
+        <v>42507</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="17">
+        <v>42507</v>
+      </c>
       <c r="I11" s="16"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="25"/>
+      <c r="J11" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="17">
+        <v>42508</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -1556,21 +1596,49 @@
       <c r="T11" s="30"/>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
-      <c r="A12" s="14"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="17">
+        <v>42507</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="17">
+        <v>42507</v>
+      </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="25"/>
+      <c r="J12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="17">
+        <v>42509</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>

--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_EQ组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_EQ组.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -277,6 +277,13 @@
   </si>
   <si>
     <t>【租客WAP】合租公寓房间详情页性别显示问题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>通过</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1023,7 @@
   <dimension ref="A1:T204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1137,7 +1144,7 @@
         <v>53</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="N2" s="17">
         <v>42506</v>
@@ -1186,9 +1193,15 @@
       <c r="L3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="17">
+        <v>42507</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>

--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_EQ组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_EQ组.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.1.3 新特性|Fix Bug'!$A$1:$S$5</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="66">
   <si>
     <t>No</t>
   </si>
@@ -284,6 +284,14 @@
   </si>
   <si>
     <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客PC】首页底部二维码修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1031,7 @@
   <dimension ref="A1:T204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1659,21 +1667,49 @@
       <c r="T12" s="30"/>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="17">
+        <v>42150</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="17">
+        <v>42150</v>
+      </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="25"/>
+      <c r="J13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="17">
+        <v>42150</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
